--- a/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC2.3_TC2.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC2.3_TC2.xlsx
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2390065294631369</v>
+        <v>0.2478093463645453</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.23900652946313686, 'ngram_match_score': 0.09459896723790603, 'weighted_ngram_match_score': 0.10482503793858501, 'syntax_match_score': 0.53125, 'dataflow_match_score': 0.22535211267605634}</t>
+          <t>{'codebleu': 0.2478093463645453, 'ngram_match_score': 0.09459896723790603, 'weighted_ngram_match_score': 0.10482503793858501, 'syntax_match_score': 0.53125, 'dataflow_match_score': 0.2605633802816901}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
